--- a/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_per_day_fixed_period_1_square_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_per_day_fixed_period_1_square_0.1_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.32000000000005</v>
+        <v>22.24000000000004</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0004506129803300007</v>
+        <v>9.154334437033729e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0004506129803300007</v>
+        <v>9.154334437033729e-05</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>46.68426862500828</v>
+        <v>48.53150760069907</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[22.161346544266934, 71.20719070574962]</t>
+          <t>[25.83667600299114, 71.226339198407]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.0003890641525670091</v>
+        <v>8.856105804122549e-05</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0003890641525670091</v>
+        <v>8.856105804122549e-05</v>
       </c>
       <c r="P2" t="n">
-        <v>1.515763422452733</v>
+        <v>1.540921321580579</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.8616580451287321, 2.169868799776734]</t>
+          <t>[0.9622896416401163, 2.1195530015210418]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>2.760486157793451e-05</v>
+        <v>2.717095247461998e-06</v>
       </c>
       <c r="S2" t="n">
-        <v>2.760486157793451e-05</v>
+        <v>2.717095247461998e-06</v>
       </c>
       <c r="T2" t="n">
-        <v>66.47776558520664</v>
+        <v>56.27130688482907</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[51.43349287382205, 81.52203829659123]</t>
+          <t>[42.299605481723106, 70.24300828793504]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.755307010853357e-11</v>
+        <v>2.370961205144795e-10</v>
       </c>
       <c r="W2" t="n">
-        <v>1.755307010853357e-11</v>
+        <v>2.370961205144795e-10</v>
       </c>
       <c r="X2" t="n">
-        <v>16.93549549549553</v>
+        <v>16.78574574574577</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.61189189189193</v>
+        <v>14.73761761761764</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.25909909909914</v>
+        <v>18.83387387387391</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.32000000000005</v>
+        <v>22.24000000000004</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0003568146926243854</v>
+        <v>2.553331110755064e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0003568146926243854</v>
+        <v>2.553331110755064e-05</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>49.68904113887359</v>
+        <v>54.01519777872625</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[18.31914751984165, 81.05893475790553]</t>
+          <t>[26.48698105159592, 81.54341450585657]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.00259005252729505</v>
+        <v>0.0002707315338124072</v>
       </c>
       <c r="O3" t="n">
-        <v>0.00259005252729505</v>
+        <v>0.0002707315338124072</v>
       </c>
       <c r="P3" t="n">
-        <v>2.056658253701427</v>
+        <v>2.157289850212811</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.4151318259413497, 2.6981846814615036]</t>
+          <t>[1.616395018964118, 2.6981846814615036]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>6.53271632344854e-08</v>
+        <v>3.086422228903984e-10</v>
       </c>
       <c r="S3" t="n">
-        <v>6.53271632344854e-08</v>
+        <v>3.086422228903984e-10</v>
       </c>
       <c r="T3" t="n">
-        <v>65.23030679714242</v>
+        <v>60.8628913922005</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[49.11646938687119, 81.34414420741365]</t>
+          <t>[46.04597757105012, 75.67980521335087]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.064584059269237e-10</v>
+        <v>1.38424161022499e-10</v>
       </c>
       <c r="W3" t="n">
-        <v>2.064584059269237e-10</v>
+        <v>1.38424161022499e-10</v>
       </c>
       <c r="X3" t="n">
-        <v>15.01405405405409</v>
+        <v>14.60404404404407</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.73513513513516</v>
+        <v>12.68948948948951</v>
       </c>
       <c r="Z3" t="n">
-        <v>17.292972972973</v>
+        <v>16.51859859859863</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.32000000000005</v>
+        <v>22.24000000000004</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001179590089066207</v>
+        <v>0.02407196989342808</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001179590089066207</v>
+        <v>0.02407196989342808</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>41.86610621312154</v>
+        <v>34.08051406288463</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[12.678490580693705, 71.05372184554938]</t>
+          <t>[2.5626662464085825, 65.59836187936068]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.005925017523264353</v>
+        <v>0.03469717000190253</v>
       </c>
       <c r="O4" t="n">
-        <v>0.005925017523264353</v>
+        <v>0.03469717000190253</v>
       </c>
       <c r="P4" t="n">
-        <v>2.383710942363427</v>
+        <v>2.144710900648888</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.7673424137311948, 3.0000794709956584]</t>
+          <t>[0.8616580451287321, 3.4277637561690435]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>6.997742385550509e-10</v>
+        <v>0.00156572883028061</v>
       </c>
       <c r="S4" t="n">
-        <v>6.997742385550509e-10</v>
+        <v>0.00156572883028061</v>
       </c>
       <c r="T4" t="n">
-        <v>52.54429726279763</v>
+        <v>58.2063749752843</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[37.31184936149104, 67.77674516410421]</t>
+          <t>[41.16959939514663, 75.24315055542196]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.218495770949346e-08</v>
+        <v>1.529049686865847e-08</v>
       </c>
       <c r="W4" t="n">
-        <v>1.218495770949346e-08</v>
+        <v>1.529049686865847e-08</v>
       </c>
       <c r="X4" t="n">
-        <v>13.85225225225228</v>
+        <v>14.64856856856859</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.66270270270273</v>
+        <v>10.10706706706708</v>
       </c>
       <c r="Z4" t="n">
-        <v>16.04180180180184</v>
+        <v>19.1900700700701</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.32000000000005</v>
+        <v>22.24000000000004</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01175454511626017</v>
+        <v>7.474730144763075e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01175454511626017</v>
+        <v>7.474730144763075e-05</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>31.46236549261271</v>
+        <v>48.41606867681505</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[6.24380486411286, 56.68092612111256]</t>
+          <t>[24.871077760180412, 71.96105959344969]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.01563024752227227</v>
+        <v>0.0001496920127117551</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01563024752227227</v>
+        <v>0.0001496920127117551</v>
       </c>
       <c r="P5" t="n">
-        <v>3.000079470995658</v>
+        <v>-3.069263693597235</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.943447707626119, 4.056711234365197]</t>
+          <t>[-3.6856322222294673, -2.4528951649650037]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>8.154662574089144e-07</v>
+        <v>4.742872761198669e-13</v>
       </c>
       <c r="S5" t="n">
-        <v>8.154662574089144e-07</v>
+        <v>4.742872761198669e-13</v>
       </c>
       <c r="T5" t="n">
-        <v>53.53701693322695</v>
+        <v>54.92644919653748</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[38.78474376606785, 68.28929010038605]</t>
+          <t>[40.320303876261946, 69.53259451681302]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>3.551553717784373e-09</v>
+        <v>1.446968767027101e-09</v>
       </c>
       <c r="W5" t="n">
-        <v>3.551553717784373e-09</v>
+        <v>1.446968767027101e-09</v>
       </c>
       <c r="X5" t="n">
-        <v>11.66270270270273</v>
+        <v>10.863983983984</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.909189189189208</v>
+        <v>8.682282282282298</v>
       </c>
       <c r="Z5" t="n">
-        <v>15.41621621621625</v>
+        <v>13.04568568568571</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.05000000000048</v>
+        <v>24.78000000000043</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0006794049518206169</v>
+        <v>8.796405259747786e-08</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0006794049518206169</v>
+        <v>8.796405259747786e-08</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>51.56600313911552</v>
+        <v>73.73081111289808</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[19.883196548018816, 83.24880973021223]</t>
+          <t>[49.68005702762264, 97.78156519817352]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.002019409824957297</v>
+        <v>1.718867539413083e-07</v>
       </c>
       <c r="O6" t="n">
-        <v>0.002019409824957297</v>
+        <v>1.718867539413083e-07</v>
       </c>
       <c r="P6" t="n">
-        <v>-2.754789954499158</v>
+        <v>-2.981211046649774</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-3.4214742813870815, -2.0881056276112337]</t>
+          <t>[-3.3585795335674664, -2.6038425597320813]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>1.175517461149411e-10</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>1.175517461149411e-10</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>61.43772709143879</v>
+        <v>70.54352598952825</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[44.11519940482357, 78.76025477805402]</t>
+          <t>[55.589162509969945, 85.49788946908654]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>6.247397710268388e-09</v>
+        <v>2.520650355108955e-12</v>
       </c>
       <c r="W6" t="n">
-        <v>6.247397710268388e-09</v>
+        <v>2.520650355108955e-12</v>
       </c>
       <c r="X6" t="n">
-        <v>10.98288288288309</v>
+        <v>11.75747747747768</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.324924924925083</v>
+        <v>10.26918918918937</v>
       </c>
       <c r="Z6" t="n">
-        <v>13.6408408408411</v>
+        <v>13.245765765766</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.05000000000048</v>
+        <v>24.78000000000043</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>9.374483760482555e-06</v>
+        <v>0.002998563651989472</v>
       </c>
       <c r="I7" t="n">
-        <v>9.374483760482555e-06</v>
+        <v>0.002998563651989472</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>62.64946480128476</v>
+        <v>49.26014777220632</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[33.830795153284754, 91.46813444928478]</t>
+          <t>[17.075661257903334, 81.44463428650931]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>7.044107286136025e-05</v>
+        <v>0.003497267096751022</v>
       </c>
       <c r="O7" t="n">
-        <v>7.044107286136025e-05</v>
+        <v>0.003497267096751022</v>
       </c>
       <c r="P7" t="n">
-        <v>-2.84284260144662</v>
+        <v>-2.993789996213697</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-3.3711584831313903, -2.314526719761849]</t>
+          <t>[-3.849158566560468, -2.138421425866926]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>3.952393967665557e-14</v>
+        <v>8.609838841877604e-09</v>
       </c>
       <c r="S7" t="n">
-        <v>3.952393967665557e-14</v>
+        <v>8.609838841877604e-09</v>
       </c>
       <c r="T7" t="n">
-        <v>73.05098994938321</v>
+        <v>73.56746559175026</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[57.1920855360776, 88.90989436268882]</t>
+          <t>[54.63169299131479, 92.50323819218573]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>5.160982752272503e-12</v>
+        <v>6.203901836698833e-10</v>
       </c>
       <c r="W7" t="n">
-        <v>5.160982752272503e-12</v>
+        <v>6.203901836698833e-10</v>
       </c>
       <c r="X7" t="n">
-        <v>11.33393393393415</v>
+        <v>11.80708708708729</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.2276276276278</v>
+        <v>8.433633633633779</v>
       </c>
       <c r="Z7" t="n">
-        <v>13.4402402402405</v>
+        <v>15.18054054054081</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.05000000000048</v>
+        <v>24.78000000000043</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>7.96849773310182e-06</v>
+        <v>7.168182212358154e-05</v>
       </c>
       <c r="I8" t="n">
-        <v>7.96849773310182e-06</v>
+        <v>7.168182212358154e-05</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>79.9067117145409</v>
+        <v>57.19566578990999</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[44.18455545832279, 115.62886797075902]</t>
+          <t>[28.020218137313762, 86.37111344250621]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>4.678417717696171e-05</v>
+        <v>0.0002737395459013747</v>
       </c>
       <c r="O8" t="n">
-        <v>4.678417717696171e-05</v>
+        <v>0.0002737395459013747</v>
       </c>
       <c r="P8" t="n">
-        <v>2.88686892492035</v>
+        <v>2.912026824048196</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[2.3711319927995036, 3.402605857041197]</t>
+          <t>[2.3082372449798885, 3.5158164031165042]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.06581410364015e-14</v>
+        <v>1.280975325812506e-12</v>
       </c>
       <c r="S8" t="n">
-        <v>1.06581410364015e-14</v>
+        <v>1.280975325812506e-12</v>
       </c>
       <c r="T8" t="n">
-        <v>86.47702180253317</v>
+        <v>63.5949403875056</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[66.25879872144453, 106.69524488362181]</t>
+          <t>[47.10161801074365, 80.08826276426755]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>4.471112369230923e-11</v>
+        <v>7.568081716868846e-10</v>
       </c>
       <c r="W8" t="n">
-        <v>4.471112369230923e-11</v>
+        <v>7.568081716868846e-10</v>
       </c>
       <c r="X8" t="n">
-        <v>13.5405405405408</v>
+        <v>13.29537537537561</v>
       </c>
       <c r="Y8" t="n">
-        <v>11.4843843843846</v>
+        <v>10.91411411411431</v>
       </c>
       <c r="Z8" t="n">
-        <v>15.59669669669699</v>
+        <v>15.67663663663691</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.05000000000048</v>
+        <v>24.78000000000043</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>3.953885126195544e-05</v>
+        <v>0.0005108293604034753</v>
       </c>
       <c r="I9" t="n">
-        <v>3.953885126195544e-05</v>
+        <v>0.0005108293604034753</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>59.1310542292877</v>
+        <v>48.58625898128606</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[30.405511577028477, 87.85659688154692]</t>
+          <t>[16.786409214089787, 80.38610874848233]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.000147651190482101</v>
+        <v>0.003549843497206329</v>
       </c>
       <c r="O9" t="n">
-        <v>0.000147651190482101</v>
+        <v>0.003549843497206329</v>
       </c>
       <c r="P9" t="n">
-        <v>2.861711025792504</v>
+        <v>2.610132034514042</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[2.295658295415965, 3.4277637561690426]</t>
+          <t>[1.9811845563178876, 3.2390795127101963]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>2.942091015256665e-13</v>
+        <v>1.042734787404243e-10</v>
       </c>
       <c r="S9" t="n">
-        <v>2.942091015256665e-13</v>
+        <v>1.042734787404243e-10</v>
       </c>
       <c r="T9" t="n">
-        <v>62.98076181273161</v>
+        <v>47.97950310899763</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[46.545172607864124, 79.41635101759911]</t>
+          <t>[31.731876156904875, 64.22713006109039]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>8.897058645374045e-10</v>
+        <v>3.733610369760498e-07</v>
       </c>
       <c r="W9" t="n">
-        <v>8.897058645374045e-10</v>
+        <v>3.733610369760498e-07</v>
       </c>
       <c r="X9" t="n">
-        <v>13.6408408408411</v>
+        <v>14.48600600600626</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.3840840840843</v>
+        <v>12.00552552552574</v>
       </c>
       <c r="Z9" t="n">
-        <v>15.8975975975979</v>
+        <v>16.96648648648678</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.05000000000048</v>
+        <v>24.78000000000043</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0002558579734903699</v>
+        <v>8.901693340157557e-05</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0002558579734903699</v>
+        <v>8.901693340157557e-05</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>49.53740363847523</v>
+        <v>51.59817463921517</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[18.63463314684606, 80.44017413010441]</t>
+          <t>[22.191825662576917, 81.00452361585343]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.002324305722144038</v>
+        <v>0.0009600255930237722</v>
       </c>
       <c r="O10" t="n">
-        <v>0.002324305722144038</v>
+        <v>0.0009600255930237722</v>
       </c>
       <c r="P10" t="n">
-        <v>2.320816194543811</v>
+        <v>2.081816152829273</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[1.7673424137311944, 2.8742899753564277]</t>
+          <t>[1.490605523324887, 2.6730267823336584]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>7.816147729045042e-11</v>
+        <v>7.438825111449887e-09</v>
       </c>
       <c r="S10" t="n">
-        <v>7.816147729045042e-11</v>
+        <v>7.438825111449887e-09</v>
       </c>
       <c r="T10" t="n">
-        <v>55.97602624491429</v>
+        <v>57.34279528399195</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[40.034384598944285, 71.9176678908843]</t>
+          <t>[41.856767078387975, 72.82882348959592]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>7.96608112807462e-09</v>
+        <v>2.143939248355764e-09</v>
       </c>
       <c r="W10" t="n">
-        <v>7.96608112807462e-09</v>
+        <v>2.143939248355764e-09</v>
       </c>
       <c r="X10" t="n">
-        <v>15.7972972972976</v>
+        <v>16.5696096096099</v>
       </c>
       <c r="Y10" t="n">
-        <v>13.59069069069095</v>
+        <v>14.2379579579582</v>
       </c>
       <c r="Z10" t="n">
-        <v>18.00390390390425</v>
+        <v>18.90126126126159</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.05000000000048</v>
+        <v>24.78000000000043</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0001487345274632235</v>
+        <v>0.01464160680763471</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0001487345274632235</v>
+        <v>0.01464160680763471</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>50.19001335158597</v>
+        <v>34.20458127284717</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[20.398135969228033, 79.98189073394391]</t>
+          <t>[3.3406095942790586, 65.06855295141528]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.001450424442595466</v>
+        <v>0.03063096514141916</v>
       </c>
       <c r="O11" t="n">
-        <v>0.001450424442595466</v>
+        <v>0.03063096514141916</v>
       </c>
       <c r="P11" t="n">
-        <v>2.484342538874811</v>
+        <v>2.446605690183042</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[1.9057108589343486, 3.062974218815274]</t>
+          <t>[1.6541318676558872, 3.2390795127101972]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>4.013323007256986e-11</v>
+        <v>1.480331108805188e-07</v>
       </c>
       <c r="S11" t="n">
-        <v>4.013323007256986e-11</v>
+        <v>1.480331108805188e-07</v>
       </c>
       <c r="T11" t="n">
-        <v>55.89265503916258</v>
+        <v>52.23666730399489</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[40.446005803790136, 71.33930427453501]</t>
+          <t>[36.21563632257832, 68.25769828541146]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>3.819933036552925e-09</v>
+        <v>4.481566495684319e-08</v>
       </c>
       <c r="W11" t="n">
-        <v>3.819933036552925e-09</v>
+        <v>4.481566495684319e-08</v>
       </c>
       <c r="X11" t="n">
-        <v>15.14534534534563</v>
+        <v>15.1309309309312</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.83843843843868</v>
+        <v>12.00552552552574</v>
       </c>
       <c r="Z11" t="n">
-        <v>17.45225225225258</v>
+        <v>18.25633633633666</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>25.05000000000048</v>
+        <v>24.78000000000043</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0009213973040845813</v>
+        <v>0.004914660404543469</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0009213973040845813</v>
+        <v>0.004914660404543469</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>49.01871324675987</v>
+        <v>46.08514379726368</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[16.019460196882633, 82.01796629663711]</t>
+          <t>[10.568541372691854, 81.6017462218355]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.004488209990637593</v>
+        <v>0.01214622087371309</v>
       </c>
       <c r="O12" t="n">
-        <v>0.004488209990637593</v>
+        <v>0.01214622087371309</v>
       </c>
       <c r="P12" t="n">
-        <v>2.044079304137504</v>
+        <v>2.55981623625835</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[1.3522370781217345, 2.7359215301532727]</t>
+          <t>[1.7925003128590413, 3.3271321596576593]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>3.69452842985396e-07</v>
+        <v>2.661531928183081e-08</v>
       </c>
       <c r="S12" t="n">
-        <v>3.69452842985396e-07</v>
+        <v>2.661531928183081e-08</v>
       </c>
       <c r="T12" t="n">
-        <v>64.46217171929294</v>
+        <v>71.02990520480036</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[46.89509542756888, 82.02924801101699]</t>
+          <t>[52.106844200727494, 89.95296620887322]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>2.693394618447087e-09</v>
+        <v>1.516504477550029e-09</v>
       </c>
       <c r="W12" t="n">
-        <v>2.693394618447087e-09</v>
+        <v>1.516504477550029e-09</v>
       </c>
       <c r="X12" t="n">
-        <v>16.90060060060092</v>
+        <v>14.6844444444447</v>
       </c>
       <c r="Y12" t="n">
-        <v>14.14234234234261</v>
+        <v>11.65825825825846</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.65885885885922</v>
+        <v>17.71063063063094</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>25.05000000000048</v>
+        <v>24.78000000000043</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0005969320203497164</v>
+        <v>0.0004061518540575682</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0005969320203497164</v>
+        <v>0.0004061518540575682</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>43.94081024890359</v>
+        <v>50.10716641257162</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[19.506374753857713, 68.37524574394946]</t>
+          <t>[19.924325492639497, 80.29000733250373]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.0007392995798027879</v>
+        <v>0.001673418879329924</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0007392995798027879</v>
+        <v>0.001673418879329924</v>
       </c>
       <c r="P13" t="n">
-        <v>1.616395018964117</v>
+        <v>1.968605606753965</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[0.8993948938205003, 2.333395144107734]</t>
+          <t>[1.3019212798660407, 2.6352899336418885]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>4.173142837493593e-05</v>
+        <v>3.738387701623935e-07</v>
       </c>
       <c r="S13" t="n">
-        <v>4.173142837493593e-05</v>
+        <v>3.738387701623935e-07</v>
       </c>
       <c r="T13" t="n">
-        <v>66.52316676137897</v>
+        <v>71.4493238388888</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[51.27132462016755, 81.7750089025904]</t>
+          <t>[54.68565586550149, 88.21299181227612]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>2.557332123842571e-11</v>
+        <v>4.939959552530127e-11</v>
       </c>
       <c r="W13" t="n">
-        <v>2.557332123842571e-11</v>
+        <v>4.939959552530127e-11</v>
       </c>
       <c r="X13" t="n">
-        <v>18.60570570570606</v>
+        <v>17.01609609609639</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.74714714714745</v>
+        <v>14.38678678678704</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.46426426426468</v>
+        <v>19.64540540540575</v>
       </c>
     </row>
     <row r="14">
@@ -1597,7 +1597,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>25.05000000000048</v>
+        <v>24.78000000000043</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01899308920452836</v>
+        <v>0.06203153348447354</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01899308920452836</v>
+        <v>0.06203153348447354</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>33.96596000051066</v>
+        <v>31.09141693338714</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[5.426941655395282, 62.50497834562604]</t>
+          <t>[-1.2333142909686643, 63.41614815774294]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.02073884492872202</v>
+        <v>0.05900616465077935</v>
       </c>
       <c r="O14" t="n">
-        <v>0.02073884492872202</v>
+        <v>0.05900616465077935</v>
       </c>
       <c r="P14" t="n">
-        <v>1.452868674633118</v>
+        <v>1.440289725069194</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[0.3333421634439624, 2.5723951858222733]</t>
+          <t>[-0.01886842434588587, 2.8994478744842738]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.01213466495524429</v>
+        <v>0.05290919250862869</v>
       </c>
       <c r="S14" t="n">
-        <v>0.01213466495524429</v>
+        <v>0.05290919250862869</v>
       </c>
       <c r="T14" t="n">
-        <v>58.02611933477121</v>
+        <v>56.67034556902512</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[41.29445470283713, 74.75778396670529]</t>
+          <t>[38.210079519481226, 75.130611618569]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1.07255611059287e-08</v>
+        <v>1.66956434455301e-07</v>
       </c>
       <c r="W14" t="n">
-        <v>1.07255611059287e-08</v>
+        <v>1.66956434455301e-07</v>
       </c>
       <c r="X14" t="n">
-        <v>19.25765765765802</v>
+        <v>19.09969969970004</v>
       </c>
       <c r="Y14" t="n">
-        <v>14.79429429429457</v>
+        <v>13.34498498498522</v>
       </c>
       <c r="Z14" t="n">
-        <v>23.72102102102147</v>
+        <v>24.85441441441485</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_per_day_fixed_period_1_square_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_per_day_fixed_period_1_square_0.1_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.24000000000004</v>
+        <v>22.71000000000011</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>9.154334437033729e-05</v>
+        <v>1.979472155089201e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>9.154334437033729e-05</v>
+        <v>1.979472155089201e-05</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>48.53150760069907</v>
+        <v>58.72571705303203</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[25.83667600299114, 71.226339198407]</t>
+          <t>[33.17760132536364, 84.27383278070042]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>8.856105804122549e-05</v>
+        <v>3.121775354730794e-05</v>
       </c>
       <c r="O2" t="n">
-        <v>8.856105804122549e-05</v>
+        <v>3.121775354730794e-05</v>
       </c>
       <c r="P2" t="n">
-        <v>1.540921321580579</v>
+        <v>1.704447665911578</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.9622896416401163, 2.1195530015210418]</t>
+          <t>[1.1635528346628847, 2.245342497160272]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>2.717095247461998e-06</v>
+        <v>9.529158639942636e-08</v>
       </c>
       <c r="S2" t="n">
-        <v>2.717095247461998e-06</v>
+        <v>9.529158639942636e-08</v>
       </c>
       <c r="T2" t="n">
-        <v>56.27130688482907</v>
+        <v>67.3942006520228</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[42.299605481723106, 70.24300828793504]</t>
+          <t>[51.88100536685353, 82.90739593719208]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.370961205144795e-10</v>
+        <v>2.867261983396929e-11</v>
       </c>
       <c r="W2" t="n">
-        <v>2.370961205144795e-10</v>
+        <v>2.867261983396929e-11</v>
       </c>
       <c r="X2" t="n">
-        <v>16.78574574574577</v>
+        <v>16.54942942942952</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.73761761761764</v>
+        <v>14.59441441441449</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.83387387387391</v>
+        <v>18.50444444444454</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.24000000000004</v>
+        <v>22.71000000000011</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.553331110755064e-05</v>
+        <v>0.0002706176228253199</v>
       </c>
       <c r="I3" t="n">
-        <v>2.553331110755064e-05</v>
+        <v>0.0002706176228253199</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>54.01519777872625</v>
+        <v>56.46181075338282</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[26.48698105159592, 81.54341450585657]</t>
+          <t>[25.23964426010272, 87.68397724666292]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.0002707315338124072</v>
+        <v>0.0006957667846452242</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0002707315338124072</v>
+        <v>0.0006957667846452242</v>
       </c>
       <c r="P3" t="n">
-        <v>2.157289850212811</v>
+        <v>1.805079262422964</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.616395018964118, 2.6981846814615036]</t>
+          <t>[1.1761317842268095, 2.434026740619119]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>3.086422228903984e-10</v>
+        <v>6.605425819650179e-07</v>
       </c>
       <c r="S3" t="n">
-        <v>3.086422228903984e-10</v>
+        <v>6.605425819650179e-07</v>
       </c>
       <c r="T3" t="n">
-        <v>60.8628913922005</v>
+        <v>70.41731617542527</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[46.04597757105012, 75.67980521335087]</t>
+          <t>[52.72122528290899, 88.11340706794155]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.38424161022499e-10</v>
+        <v>3.282103477886267e-10</v>
       </c>
       <c r="W3" t="n">
-        <v>1.38424161022499e-10</v>
+        <v>3.282103477886267e-10</v>
       </c>
       <c r="X3" t="n">
-        <v>14.60404404404407</v>
+        <v>16.18570570570579</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.68948948948951</v>
+        <v>13.9124324324325</v>
       </c>
       <c r="Z3" t="n">
-        <v>16.51859859859863</v>
+        <v>18.45897897897907</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.24000000000004</v>
+        <v>22.71000000000011</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02407196989342808</v>
+        <v>0.01247934421548069</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02407196989342808</v>
+        <v>0.01247934421548069</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>34.08051406288463</v>
+        <v>35.68727068167144</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[2.5626662464085825, 65.59836187936068]</t>
+          <t>[4.447716725727531, 66.92682463761534]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.03469717000190253</v>
+        <v>0.02608723458150641</v>
       </c>
       <c r="O4" t="n">
-        <v>0.03469717000190253</v>
+        <v>0.02608723458150641</v>
       </c>
       <c r="P4" t="n">
-        <v>2.144710900648888</v>
+        <v>2.345974093671658</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.8616580451287321, 3.4277637561690435]</t>
+          <t>[1.5912371198362725, 3.1007110675070426]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.00156572883028061</v>
+        <v>1.280458539199003e-07</v>
       </c>
       <c r="S4" t="n">
-        <v>0.00156572883028061</v>
+        <v>1.280458539199003e-07</v>
       </c>
       <c r="T4" t="n">
-        <v>58.2063749752843</v>
+        <v>64.94191580133591</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[41.16959939514663, 75.24315055542196]</t>
+          <t>[48.510775890976554, 81.37305571169526]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.529049686865847e-08</v>
+        <v>3.935431980295334e-10</v>
       </c>
       <c r="W4" t="n">
-        <v>1.529049686865847e-08</v>
+        <v>3.935431980295334e-10</v>
       </c>
       <c r="X4" t="n">
-        <v>14.64856856856859</v>
+        <v>14.23069069069076</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.10706706706708</v>
+        <v>11.50276276276282</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.1900700700701</v>
+        <v>16.9586186186187</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.24000000000004</v>
+        <v>22.71000000000011</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>7.474730144763075e-05</v>
+        <v>0.0009224506111212838</v>
       </c>
       <c r="I5" t="n">
-        <v>7.474730144763075e-05</v>
+        <v>0.0009224506111212838</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>48.41606867681505</v>
+        <v>41.23753869884019</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[24.871077760180412, 71.96105959344969]</t>
+          <t>[16.421571383356735, 66.05350601432364]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.0001496920127117551</v>
+        <v>0.001657828641401737</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0001496920127117551</v>
+        <v>0.001657828641401737</v>
       </c>
       <c r="P5" t="n">
-        <v>-3.069263693597235</v>
+        <v>2.912026824048196</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-3.6856322222294673, -2.4528951649650037]</t>
+          <t>[2.1572898502128104, 3.6667637978835823]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>4.742872761198669e-13</v>
+        <v>7.439042715162714e-10</v>
       </c>
       <c r="S5" t="n">
-        <v>4.742872761198669e-13</v>
+        <v>7.439042715162714e-10</v>
       </c>
       <c r="T5" t="n">
-        <v>54.92644919653748</v>
+        <v>74.31512497633426</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[40.320303876261946, 69.53259451681302]</t>
+          <t>[59.45235428452149, 89.17789566814703]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.446968767027101e-09</v>
+        <v>4.169997680492088e-13</v>
       </c>
       <c r="W5" t="n">
-        <v>1.446968767027101e-09</v>
+        <v>4.169997680492088e-13</v>
       </c>
       <c r="X5" t="n">
-        <v>10.863983983984</v>
+        <v>12.1847447447448</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.682282282282298</v>
+        <v>9.456816816816863</v>
       </c>
       <c r="Z5" t="n">
-        <v>13.04568568568571</v>
+        <v>14.91267267267275</v>
       </c>
     </row>
     <row r="6">
@@ -931,63 +931,63 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>8.796405259747786e-08</v>
+        <v>0.002894838500720809</v>
       </c>
       <c r="I6" t="n">
-        <v>8.796405259747786e-08</v>
+        <v>0.002894838500720809</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>73.73081111289808</v>
+        <v>47.75889602044261</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[49.68005702762264, 97.78156519817352]</t>
+          <t>[14.909649644543364, 80.60814239634185]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1.718867539413083e-07</v>
+        <v>0.00533202971938973</v>
       </c>
       <c r="O6" t="n">
-        <v>1.718867539413083e-07</v>
+        <v>0.00533202971938973</v>
       </c>
       <c r="P6" t="n">
-        <v>-2.981211046649774</v>
+        <v>-2.918316298830158</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-3.3585795335674664, -2.6038425597320813]</t>
+          <t>[-3.761105919613006, -2.07552667804731]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.112803804659279e-08</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>1.112803804659279e-08</v>
       </c>
       <c r="T6" t="n">
-        <v>70.54352598952825</v>
+        <v>59.97262201766792</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[55.589162509969945, 85.49788946908654]</t>
+          <t>[41.66434669815696, 78.28089733717887]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>2.520650355108955e-12</v>
+        <v>4.035332690222049e-08</v>
       </c>
       <c r="W6" t="n">
-        <v>2.520650355108955e-12</v>
+        <v>4.035332690222049e-08</v>
       </c>
       <c r="X6" t="n">
-        <v>11.75747747747768</v>
+        <v>11.50942942942963</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.26918918918937</v>
+        <v>8.185585585585725</v>
       </c>
       <c r="Z6" t="n">
-        <v>13.245765765766</v>
+        <v>14.83327327327354</v>
       </c>
     </row>
     <row r="7">
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1017,63 +1017,63 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002998563651989472</v>
+        <v>0.2118121467257275</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002998563651989472</v>
+        <v>0.2118121467257275</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>49.26014777220632</v>
+        <v>23.63901791672137</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[17.075661257903334, 81.44463428650931]</t>
+          <t>[-9.99615402193654, 57.274189855379284]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.003497267096751022</v>
+        <v>0.1637986372989186</v>
       </c>
       <c r="O7" t="n">
-        <v>0.003497267096751022</v>
+        <v>0.1637986372989186</v>
       </c>
       <c r="P7" t="n">
-        <v>-2.993789996213697</v>
+        <v>2.924605773612119</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-3.849158566560468, -2.138421425866926]</t>
+          <t>[-0.16352634433100022, 6.012737891555239]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>8.609838841877604e-09</v>
+        <v>0.06285691795004467</v>
       </c>
       <c r="S7" t="n">
-        <v>8.609838841877604e-09</v>
+        <v>0.06285691795004467</v>
       </c>
       <c r="T7" t="n">
-        <v>73.56746559175026</v>
+        <v>58.45394065653218</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[54.63169299131479, 92.50323819218573]</t>
+          <t>[39.90488615875176, 77.0029951543126]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>6.203901836698833e-10</v>
+        <v>9.519061872076406e-08</v>
       </c>
       <c r="W7" t="n">
-        <v>6.203901836698833e-10</v>
+        <v>9.519061872076406e-08</v>
       </c>
       <c r="X7" t="n">
-        <v>11.80708708708729</v>
+        <v>13.245765765766</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.433633633633779</v>
+        <v>1.06660660660663</v>
       </c>
       <c r="Z7" t="n">
-        <v>15.18054054054081</v>
+        <v>25.42492492492537</v>
       </c>
     </row>
     <row r="8">
@@ -1103,63 +1103,63 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>7.168182212358154e-05</v>
+        <v>0.0008879052378460983</v>
       </c>
       <c r="I8" t="n">
-        <v>7.168182212358154e-05</v>
+        <v>0.0008879052378460983</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>57.19566578990999</v>
+        <v>49.90274303979981</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[28.020218137313762, 86.37111344250621]</t>
+          <t>[18.963397527565093, 80.84208855203453]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.0002737395459013747</v>
+        <v>0.002196344648174753</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0002737395459013747</v>
+        <v>0.002196344648174753</v>
       </c>
       <c r="P8" t="n">
-        <v>2.912026824048196</v>
+        <v>2.861711025792505</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[2.3082372449798885, 3.5158164031165042]</t>
+          <t>[2.119553001521041, 3.6038690500639685]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.280975325812506e-12</v>
+        <v>7.561256065713451e-10</v>
       </c>
       <c r="S8" t="n">
-        <v>1.280975325812506e-12</v>
+        <v>7.561256065713451e-10</v>
       </c>
       <c r="T8" t="n">
-        <v>63.5949403875056</v>
+        <v>74.07543589192196</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[47.10161801074365, 80.08826276426755]</t>
+          <t>[56.76441008955173, 91.38646169429218]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>7.568081716868846e-10</v>
+        <v>4.414912879724397e-11</v>
       </c>
       <c r="W8" t="n">
-        <v>7.568081716868846e-10</v>
+        <v>4.414912879724397e-11</v>
       </c>
       <c r="X8" t="n">
-        <v>13.29537537537561</v>
+        <v>13.49381381381405</v>
       </c>
       <c r="Y8" t="n">
-        <v>10.91411411411431</v>
+        <v>10.56684684684703</v>
       </c>
       <c r="Z8" t="n">
-        <v>15.67663663663691</v>
+        <v>16.42078078078107</v>
       </c>
     </row>
     <row r="9">
@@ -1189,63 +1189,63 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0005108293604034753</v>
+        <v>1.734867144276286e-06</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0005108293604034753</v>
+        <v>1.734867144276286e-06</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>48.58625898128606</v>
+        <v>60.7034236549075</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[16.786409214089787, 80.38610874848233]</t>
+          <t>[33.16217156388535, 88.24467574592964]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.003549843497206329</v>
+        <v>5.79260473916321e-05</v>
       </c>
       <c r="O9" t="n">
-        <v>0.003549843497206329</v>
+        <v>5.79260473916321e-05</v>
       </c>
       <c r="P9" t="n">
-        <v>2.610132034514042</v>
+        <v>2.660447832769735</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[1.9811845563178876, 3.2390795127101963]</t>
+          <t>[2.19502669890458, 3.12586896663489]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>1.042734787404243e-10</v>
+        <v>5.329070518200751e-15</v>
       </c>
       <c r="S9" t="n">
-        <v>1.042734787404243e-10</v>
+        <v>5.329070518200751e-15</v>
       </c>
       <c r="T9" t="n">
-        <v>47.97950310899763</v>
+        <v>67.27285963743734</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[31.731876156904875, 64.22713006109039]</t>
+          <t>[52.95758666887055, 81.58813260600412]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>3.733610369760498e-07</v>
+        <v>2.828182132930124e-12</v>
       </c>
       <c r="W9" t="n">
-        <v>3.733610369760498e-07</v>
+        <v>2.828182132930124e-12</v>
       </c>
       <c r="X9" t="n">
-        <v>14.48600600600626</v>
+        <v>14.28756756756782</v>
       </c>
       <c r="Y9" t="n">
-        <v>12.00552552552574</v>
+        <v>12.45201201201223</v>
       </c>
       <c r="Z9" t="n">
-        <v>16.96648648648678</v>
+        <v>16.12312312312341</v>
       </c>
     </row>
     <row r="10">
@@ -1275,63 +1275,63 @@
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>8.901693340157557e-05</v>
+        <v>7.555134401160402e-05</v>
       </c>
       <c r="I10" t="n">
-        <v>8.901693340157557e-05</v>
+        <v>7.555134401160402e-05</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>51.59817463921517</v>
+        <v>49.63510377787333</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[22.191825662576917, 81.00452361585343]</t>
+          <t>[21.012454313611727, 78.25775324213494]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.0009600255930237722</v>
+        <v>0.001084521799865179</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0009600255930237722</v>
+        <v>0.001084521799865179</v>
       </c>
       <c r="P10" t="n">
-        <v>2.081816152829273</v>
+        <v>2.345974093671658</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[1.490605523324887, 2.6730267823336584]</t>
+          <t>[1.8428161111147334, 2.8491320762285817]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>7.438825111449887e-09</v>
+        <v>3.587574681773731e-12</v>
       </c>
       <c r="S10" t="n">
-        <v>7.438825111449887e-09</v>
+        <v>3.587574681773731e-12</v>
       </c>
       <c r="T10" t="n">
-        <v>57.34279528399195</v>
+        <v>60.91173496992849</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[41.856767078387975, 72.82882348959592]</t>
+          <t>[46.28599708269306, 75.53747285716392]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2.143939248355764e-09</v>
+        <v>9.45232780935612e-11</v>
       </c>
       <c r="W10" t="n">
-        <v>2.143939248355764e-09</v>
+        <v>9.45232780935612e-11</v>
       </c>
       <c r="X10" t="n">
-        <v>16.5696096096099</v>
+        <v>15.52780780780808</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.2379579579582</v>
+        <v>13.54342342342366</v>
       </c>
       <c r="Z10" t="n">
-        <v>18.90126126126159</v>
+        <v>17.5121921921925</v>
       </c>
     </row>
     <row r="11">
@@ -1361,63 +1361,63 @@
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01464160680763471</v>
+        <v>0.0001647698991809055</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01464160680763471</v>
+        <v>0.0001647698991809055</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>34.20458127284717</v>
+        <v>49.76852042092324</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[3.3406095942790586, 65.06855295141528]</t>
+          <t>[22.22878471854966, 77.30825612329681]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.03063096514141916</v>
+        <v>0.0007009702815119478</v>
       </c>
       <c r="O11" t="n">
-        <v>0.03063096514141916</v>
+        <v>0.0007009702815119478</v>
       </c>
       <c r="P11" t="n">
-        <v>2.446605690183042</v>
+        <v>1.905710858934349</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[1.6541318676558872, 3.2390795127101972]</t>
+          <t>[1.2767633807381946, 2.5346583371305043]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>1.480331108805188e-07</v>
+        <v>2.197403978776435e-07</v>
       </c>
       <c r="S11" t="n">
-        <v>1.480331108805188e-07</v>
+        <v>2.197403978776435e-07</v>
       </c>
       <c r="T11" t="n">
-        <v>52.23666730399489</v>
+        <v>67.37716389632578</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[36.21563632257832, 68.25769828541146]</t>
+          <t>[51.76090170338095, 82.99342608927061]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>4.481566495684319e-08</v>
+        <v>3.49069662064494e-11</v>
       </c>
       <c r="W11" t="n">
-        <v>4.481566495684319e-08</v>
+        <v>3.49069662064494e-11</v>
       </c>
       <c r="X11" t="n">
-        <v>15.1309309309312</v>
+        <v>17.26414414414445</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.00552552552574</v>
+        <v>14.78366366366392</v>
       </c>
       <c r="Z11" t="n">
-        <v>18.25633633633666</v>
+        <v>19.74462462462497</v>
       </c>
     </row>
     <row r="12">
@@ -1425,7 +1425,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1447,63 +1447,63 @@
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.004914660404543469</v>
+        <v>0.0311790073683853</v>
       </c>
       <c r="I12" t="n">
-        <v>0.004914660404543469</v>
+        <v>0.0311790073683853</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>46.08514379726368</v>
+        <v>32.61013248390056</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[10.568541372691854, 81.6017462218355]</t>
+          <t>[-0.7863683172395071, 66.00663328504064]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.01214622087371309</v>
+        <v>0.05540557828105563</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01214622087371309</v>
+        <v>0.05540557828105563</v>
       </c>
       <c r="P12" t="n">
-        <v>2.55981623625835</v>
+        <v>2.19502669890458</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[1.7925003128590413, 3.3271321596576593]</t>
+          <t>[0.9371317425122712, 3.4529216552968887]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>2.661531928183081e-08</v>
+        <v>0.001016773538911719</v>
       </c>
       <c r="S12" t="n">
-        <v>2.661531928183081e-08</v>
+        <v>0.001016773538911719</v>
       </c>
       <c r="T12" t="n">
-        <v>71.02990520480036</v>
+        <v>63.98083523788392</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[52.106844200727494, 89.95296620887322]</t>
+          <t>[46.84412486376644, 81.11754561200141]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>1.516504477550029e-09</v>
+        <v>1.738836408193833e-09</v>
       </c>
       <c r="W12" t="n">
-        <v>1.516504477550029e-09</v>
+        <v>1.738836408193833e-09</v>
       </c>
       <c r="X12" t="n">
-        <v>14.6844444444447</v>
+        <v>16.12312312312341</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.65825825825846</v>
+        <v>11.16216216216236</v>
       </c>
       <c r="Z12" t="n">
-        <v>17.71063063063094</v>
+        <v>21.08408408408445</v>
       </c>
     </row>
     <row r="13">
@@ -1533,63 +1533,63 @@
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0004061518540575682</v>
+        <v>4.87654397731685e-05</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0004061518540575682</v>
+        <v>4.87654397731685e-05</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>50.10716641257162</v>
+        <v>49.42928298334006</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[19.924325492639497, 80.29000733250373]</t>
+          <t>[24.010013346127025, 74.8485526205531]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.001673418879329924</v>
+        <v>0.000302119657634714</v>
       </c>
       <c r="O13" t="n">
-        <v>0.001673418879329924</v>
+        <v>0.000302119657634714</v>
       </c>
       <c r="P13" t="n">
-        <v>1.968605606753965</v>
+        <v>1.855395060678656</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[1.3019212798660407, 2.6352899336418885]</t>
+          <t>[1.2767633807381937, 2.434026740619119]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.738387701623935e-07</v>
+        <v>6.503960947590315e-08</v>
       </c>
       <c r="S13" t="n">
-        <v>3.738387701623935e-07</v>
+        <v>6.503960947590315e-08</v>
       </c>
       <c r="T13" t="n">
-        <v>71.4493238388888</v>
+        <v>49.53408405787714</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[54.68565586550149, 88.21299181227612]</t>
+          <t>[35.21917800427014, 63.84899011148415]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>4.939959552530127e-11</v>
+        <v>1.131106874829868e-08</v>
       </c>
       <c r="W13" t="n">
-        <v>4.939959552530127e-11</v>
+        <v>1.131106874829868e-08</v>
       </c>
       <c r="X13" t="n">
-        <v>17.01609609609639</v>
+        <v>17.46258258258289</v>
       </c>
       <c r="Y13" t="n">
-        <v>14.38678678678704</v>
+        <v>15.18054054054081</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.64540540540575</v>
+        <v>19.74462462462497</v>
       </c>
     </row>
     <row r="14">
@@ -1597,7 +1597,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1619,63 +1619,63 @@
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.06203153348447354</v>
+        <v>0.0003366248467692179</v>
       </c>
       <c r="I14" t="n">
-        <v>0.06203153348447354</v>
+        <v>0.0003366248467692179</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>31.09141693338714</v>
+        <v>56.12375104696615</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-1.2333142909686643, 63.41614815774294]</t>
+          <t>[24.537308451505766, 87.71019364242653]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.05900616465077935</v>
+        <v>0.0008410392654911725</v>
       </c>
       <c r="O14" t="n">
-        <v>0.05900616465077935</v>
+        <v>0.0008410392654911725</v>
       </c>
       <c r="P14" t="n">
-        <v>1.440289725069194</v>
+        <v>1.805079262422964</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-0.01886842434588587, 2.8994478744842738]</t>
+          <t>[1.1132370364071935, 2.496921488438735]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.05290919250862869</v>
+        <v>3.918334693153724e-06</v>
       </c>
       <c r="S14" t="n">
-        <v>0.05290919250862869</v>
+        <v>3.918334693153724e-06</v>
       </c>
       <c r="T14" t="n">
-        <v>56.67034556902512</v>
+        <v>73.5366873707805</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[38.210079519481226, 75.130611618569]</t>
+          <t>[54.998233459370084, 92.07514128219091]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1.66956434455301e-07</v>
+        <v>3.572129259055146e-10</v>
       </c>
       <c r="W14" t="n">
-        <v>1.66956434455301e-07</v>
+        <v>3.572129259055146e-10</v>
       </c>
       <c r="X14" t="n">
-        <v>19.09969969970004</v>
+        <v>17.66102102102133</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.34498498498522</v>
+        <v>14.93249249249275</v>
       </c>
       <c r="Z14" t="n">
-        <v>24.85441441441485</v>
+        <v>20.38954954954991</v>
       </c>
     </row>
   </sheetData>
